--- a/Board/UB_GD32F470VGT6/Documents/GD32F470VGT6.xlsx
+++ b/Board/UB_GD32F470VGT6/Documents/GD32F470VGT6.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="8955" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Flash_SRAM" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Size" sheetId="2" r:id="rId2"/>
+    <sheet name="IO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Flash</t>
   </si>
@@ -83,6 +83,78 @@
   </si>
   <si>
     <t>0x00002000</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>485_1</t>
+  </si>
+  <si>
+    <t>UART6_RX</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>UART6_TX</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>RS485_RTS2</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>485_2</t>
+  </si>
+  <si>
+    <t>UART3_RX</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>RS485_RTS1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>UART3_TX</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>485_3</t>
+  </si>
+  <si>
+    <t>USART5_RX</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>USART5_TX</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>RS485_1_DE</t>
+  </si>
+  <si>
+    <t>PA8</t>
   </si>
 </sst>
 </file>
@@ -255,12 +327,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -626,7 +704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,16 +728,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -668,108 +746,117 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1173,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E1" sqref="E1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1100,7 +1187,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1113,21 +1200,21 @@
         <f>"0x"&amp;DEC2HEX(C1*1024,8)</f>
         <v>0x000C0000</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1138,26 +1225,26 @@
         <f>"0x"&amp;DEC2HEX(C2*1024,8)</f>
         <v>0x00040000</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>64</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="7" t="str">
         <f>"0x"&amp;DEC2HEX(F2*1024,8)</f>
         <v>0x00010000</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="7" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(H2,3,8))+F2*1024-1,8)</f>
         <v>0x0800FFFF</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1169,22 +1256,22 @@
         <f>"0x"&amp;DEC2HEX(C3*1024,8)</f>
         <v>0x00100000</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <f>C1-F2</f>
         <v>704</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="7" t="str">
         <f>"0x"&amp;DEC2HEX(F3*1024,8)</f>
         <v>0x000B0000</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="9" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(I2,3,8))+1,8)</f>
         <v>0x08010000</v>
       </c>
-      <c r="I3" s="6" t="str">
+      <c r="I3" s="9" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(H3,3,8))+F3*1024-1,8)</f>
         <v>0x080BFFFF</v>
       </c>
@@ -1216,7 +1303,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
@@ -1285,14 +1372,121 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Board/UB_GD32F470VGT6/Documents/GD32F470VGT6.xlsx
+++ b/Board/UB_GD32F470VGT6/Documents/GD32F470VGT6.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flash_SRAM" sheetId="1" r:id="rId1"/>
     <sheet name="Size" sheetId="2" r:id="rId2"/>
     <sheet name="IO" sheetId="3" r:id="rId3"/>
+    <sheet name="W25Q128" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Flash</t>
   </si>
@@ -155,25 +156,281 @@
   </si>
   <si>
     <t>PA8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区段开始</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(KB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(KB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区段总容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(KB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区段结束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息区开始位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据区起始位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据区结束位置</t>
+    </r>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>配置区</t>
+  </si>
+  <si>
+    <t>MCU0_BOOT下载区</t>
+  </si>
+  <si>
+    <t>GD32F470 BOOT区 64KB</t>
+  </si>
+  <si>
+    <t>MCU0_BOOT备份区</t>
+  </si>
+  <si>
+    <r>
+      <t>GD32F470 BOOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 64KB</t>
+    </r>
+  </si>
+  <si>
+    <t>MCU0_APP下载区</t>
+  </si>
+  <si>
+    <t>GD32F470 应用区 704KB</t>
+  </si>
+  <si>
+    <t>MCU0_APP备份区</t>
+  </si>
+  <si>
+    <t>MCU1_BOOT下载区</t>
+  </si>
+  <si>
+    <t>GD32F303 BOOT区 64KB</t>
+  </si>
+  <si>
+    <t>MCU1_BOOT备份区</t>
+  </si>
+  <si>
+    <t>MCU1_APP下载区</t>
+  </si>
+  <si>
+    <t>GD32F303 应用区 192KB</t>
+  </si>
+  <si>
+    <t>MCU1_APP备份区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一共使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>剩余容量</t>
+  </si>
+  <si>
+    <t>W25Q128 SECTOR SIZE: 4KB</t>
+  </si>
+  <si>
+    <t>最大</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="00000000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -326,6 +583,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -336,13 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,141 +961,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,19 +1125,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,7 +1457,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1187,7 +1471,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1200,21 +1484,21 @@
         <f>"0x"&amp;DEC2HEX(C1*1024,8)</f>
         <v>0x000C0000</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
+      <c r="A2" s="10"/>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1225,26 +1509,26 @@
         <f>"0x"&amp;DEC2HEX(C2*1024,8)</f>
         <v>0x00040000</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="13">
         <v>64</v>
       </c>
-      <c r="G2" s="7" t="str">
+      <c r="G2" s="13" t="str">
         <f>"0x"&amp;DEC2HEX(F2*1024,8)</f>
         <v>0x00010000</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="13" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(H2,3,8))+F2*1024-1,8)</f>
         <v>0x0800FFFF</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1256,22 +1540,22 @@
         <f>"0x"&amp;DEC2HEX(C3*1024,8)</f>
         <v>0x00100000</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="15">
         <f>C1-F2</f>
         <v>704</v>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="G3" s="13" t="str">
         <f>"0x"&amp;DEC2HEX(F3*1024,8)</f>
         <v>0x000B0000</v>
       </c>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="15" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(I2,3,8))+1,8)</f>
         <v>0x08010000</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="15" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(H3,3,8))+F3*1024-1,8)</f>
         <v>0x080BFFFF</v>
       </c>
@@ -1374,7 +1658,7 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1384,100 +1668,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1491,4 +1775,438 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
+    <col min="8" max="10" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f t="shared" ref="E2:E10" si="0">DEC2HEX(HEX2DEC(A2)+D2*1024,8)</f>
+        <v>00100000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:12">
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A10" si="1">REPT("0",8-LEN(E2))&amp;E2</f>
+        <v>00100000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C8" si="2">4*25</f>
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D10" si="3">B3+C3</f>
+        <v>104</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011A000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H10" si="4">A3</f>
+        <v>00100000</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I10" si="5">DEC2HEX(HEX2DEC(A3)+B3*1024,8)</f>
+        <v>00101000</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J10" si="6">DEC2HEX(HEX2DEC(I3)+C3*1024,8)</f>
+        <v>0011A000</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" ht="15" spans="1:12">
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0011A000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00133000</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0011A000</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0011A000</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00133000</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" ht="15" spans="1:10">
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>00133000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <f>4*200</f>
+        <v>800</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>804</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>001FC000</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00133000</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00134000</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>001FC000</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:10">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>001FC000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>4*200</f>
+        <v>800</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>002C4000</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>001FC000</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>001FC000</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>002C4000</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:10">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>002C4000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>002DE000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>002C4000</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>002C5000</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>002DE000</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:10">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>002DE000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>002F7000</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>002DE000</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>002DE000</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>002F7000</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:10">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>002F7000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>256</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00338000</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>002F7000</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>002F8000</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00338000</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:10">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>00338000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>256</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00378000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00338000</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00338000</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00378000</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="3:4">
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(D2:D10)</f>
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="3:4">
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(128/8)*1024-D11</f>
+        <v>12832</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <f>128*1024*1024/8</f>
+        <v>16777216</v>
+      </c>
+      <c r="C17" t="str">
+        <f>DEC2HEX(B17,8)</f>
+        <v>01000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Board/UB_GD32F470VGT6/Documents/GD32F470VGT6.xlsx
+++ b/Board/UB_GD32F470VGT6/Documents/GD32F470VGT6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flash_SRAM" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Flash</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>0x00002000</t>
+  </si>
+  <si>
+    <t>0x00000800</t>
+  </si>
+  <si>
+    <t>0x00001000</t>
   </si>
   <si>
     <t>Usage</t>
@@ -1457,7 +1463,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1585,13 +1591,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
@@ -1612,11 +1618,11 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <f>HEX2DEC(MID(A2,3,8))</f>
+        <f t="shared" ref="B2:B6" si="0">HEX2DEC(MID(A2,3,8))</f>
         <v>65536</v>
       </c>
       <c r="C2">
-        <f>B2/1024</f>
+        <f t="shared" ref="C2:C6" si="1">B2/1024</f>
         <v>64</v>
       </c>
     </row>
@@ -1625,11 +1631,11 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <f>HEX2DEC(MID(A3,3,8))</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C3">
-        <f>B3/1024</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1638,12 +1644,38 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <f>HEX2DEC(MID(A4,3,8))</f>
+        <f t="shared" si="0"/>
         <v>8192</v>
       </c>
       <c r="C4">
-        <f>B4/1024</f>
+        <f t="shared" si="1"/>
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1669,100 +1701,100 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1782,8 +1814,8 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1799,41 +1831,41 @@
   <sheetData>
     <row r="1" ht="15" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1845,7 +1877,7 @@
         <v>00100000</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:12">
@@ -1869,10 +1901,10 @@
         <v>0011A000</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H10" si="4">A3</f>
@@ -1910,10 +1942,10 @@
         <v>00133000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1951,10 +1983,10 @@
         <v>001FC000</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1990,10 +2022,10 @@
         <v>002C4000</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2029,10 +2061,10 @@
         <v>002DE000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2068,10 +2100,10 @@
         <v>002F7000</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2106,10 +2138,10 @@
         <v>00338000</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2144,10 +2176,10 @@
         <v>00378000</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2164,7 +2196,7 @@
     </row>
     <row r="11" ht="15" spans="3:4">
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1">
         <f>SUM(D2:D10)</f>
@@ -2173,7 +2205,7 @@
     </row>
     <row r="12" ht="15" spans="3:4">
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
         <f>(128/8)*1024-D11</f>
@@ -2182,7 +2214,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>13</v>
@@ -2194,7 +2226,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <f>128*1024*1024/8</f>
